--- a/similarities/split_global/harmonic_similarity_timestamps_284.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_284.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,422 +484,446 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E', 'A']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'A', 'D']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:40.490000', '0:00:51.380000')]</t>
+          <t>('0:00:02.560000', '0:00:06.820000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:55.860352', '0:01:06.646022')]</t>
+          <t>('0:00:16.580000', '0:00:22.660000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=2.56</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=55.860352']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=16.58</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_46</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['A:min', 'E:maj/G#', 'A:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:03:46.620000', '0:03:52.800000')]</t>
+          <t>('0:00:10.360000', '0:00:18.440000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:10.090000', '0:00:20.170000')]</t>
+          <t>('0:00:10.760000', '0:00:16.080000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=10.36</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=10.09']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:08.220000', '0:00:22.200000')]</t>
+          <t>('0:00:58.320000', '0:00:59.680000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:02.360000', '0:00:09.640000')]</t>
+          <t>('0:00:50.130000', '0:00:59.490000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=8.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=2.36']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=50.13</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>isophonics_30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['D', 'D/7', 'A/3']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Db/5', 'Db', 'Ab/3']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+          <t>('0:00:10.129790', '0:00:11.569428')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
+          <t>('0:01:40.436000', '0:01:44.002000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-30#t=10.12979</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=100.436</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+          <t>('0:00:40.080000', '0:00:42.280000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
+          <t>('0:00:16.720000', '0:00:26.460000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.08</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=16.72</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_88</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min7', 'C:7']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:7/3', 'G:min7', 'C:7']]</t>
+          <t>['D', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:12.630000', '0:00:16.560000')]</t>
+          <t>('0:01:00.120000', '0:01:01.360000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.970000', '0:00:02.990000')]</t>
+          <t>('0:01:09.520470', '0:01:14.942329')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-88#t=12.63']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=0.97']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj/A#']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:22.240000')]</t>
+          <t>('0:01:32.180000', '0:01:37.740000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:04:43.300000', '0:04:50.060000')]</t>
+          <t>('0:01:36.120000', '0:01:43.440000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=92.18</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=96.12</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>isophonics_81</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb:7', 'Ab']]</t>
+          <t>['B', 'E/5', 'B', 'E/5']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:7', 'A#:maj']]</t>
+          <t>['Ab', 'Db/5', 'Ab', 'Db/5']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:05.440000', '0:00:14.410000')]</t>
+          <t>('0:00:55.629773', '0:01:10.444104')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:15.580000', '0:01:32.280000')]</t>
+          <t>('0:04:21.828000', '0:04:33.028000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=5.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=75.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=261.828</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['F:min/C', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['Bb:min', 'F:7', 'Bb:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:00:57.240000', '0:01:06.860000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:21.620000')]</t>
+          <t>('0:00:43.680000', '0:00:44.980000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=57.24</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=43.68</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -909,125 +933,141 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb', 'Bb/3']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:03.560000', '0:01:10.960000')]</t>
+          <t>('0:00:19.500000', '0:00:49.860000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:25.942000', '0:00:29.102000')]</t>
+          <t>('0:01:08.980000', '0:01:27.200000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=63.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=19.5</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=25.942']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=68.98</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_56</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb:7']]</t>
+          <t>['C:min', 'F:min', 'C:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G:7']]</t>
+          <t>['F#:min', 'B:min/F#', 'F#:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:30.580000', '0:00:34.890000')]</t>
+          <t>('0:00:13.648526', '0:00:21.125350')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:55.728276', '0:02:04.366099')]</t>
+          <t>('0:00:00.380000', '0:00:03.700000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=30.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=13.648526</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=115.728276']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=0.38</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A', 'E']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:45', '0:01:48.840000')]</t>
+          <t>('0:00:08.300000', '0:00:12.960000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:37.995918', '0:01:09.517005')]</t>
+          <t>('0:00:23.980000', '0:00:29.420000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=8.3</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=23.98</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1036,150 +1076,154 @@
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
+          <t>['F:7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:01.180000', '0:00:06.140000')]</t>
+          <t>('0:00:04.830000', '0:00:07.280000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:44.160000', '0:00:48.160000')]</t>
+          <t>('0:00:46.580000', '0:00:48.520000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=1.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=4.83</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=46.58</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>jaah_32</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+          <t>('0:04:22.920000', '0:04:29.360000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+          <t>('0:00:11.550000', '0:00:25.740000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=19.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=35.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_50</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['C:min', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:01.500000', '0:00:06.820000')]</t>
+          <t>('0:00:01.440000', '0:00:06.840000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:40.080000', '0:00:42.280000')]</t>
+          <t>('0:00:01.129708', '0:00:06.125260')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=1.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
